--- a/src/excel_template/cdQC_trend/Angle Trend.xlsx
+++ b/src/excel_template/cdQC_trend/Angle Trend.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F758993-FBC0-1F40-A340-685AED63C4A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="720" windowWidth="19120" windowHeight="10640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="720" windowWidth="19120" windowHeight="10640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -58,17 +57,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0_ "/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,14 +75,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -92,7 +91,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -121,24 +120,24 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -148,7 +147,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -166,7 +165,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -193,6 +192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -250,7 +250,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$211</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="206"/>
               </c:numCache>
             </c:numRef>
@@ -300,7 +300,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP" sz="1100"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57238656"/>
@@ -333,6 +333,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -346,7 +347,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57235712"/>
@@ -381,7 +382,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -396,7 +397,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -423,6 +424,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -480,7 +482,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$211</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="206"/>
               </c:numCache>
             </c:numRef>
@@ -531,7 +533,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP" sz="1100"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57223424"/>
@@ -566,6 +568,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -579,7 +582,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57221504"/>
@@ -613,7 +616,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -627,7 +630,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -654,6 +657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -711,7 +715,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$211</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="206"/>
               </c:numCache>
             </c:numRef>
@@ -771,7 +775,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$211</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="206"/>
               </c:numCache>
             </c:numRef>
@@ -822,7 +826,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP" sz="1100"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57533568"/>
@@ -859,6 +863,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -872,7 +877,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57510912"/>
@@ -892,6 +897,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -900,7 +906,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -920,7 +926,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -934,7 +940,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -961,6 +967,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1004,7 +1011,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1050,7 +1057,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1089,7 +1096,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1135,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1174,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1206,7 +1213,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1245,7 +1252,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1291,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1330,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1362,7 +1369,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1401,7 +1408,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1440,7 +1447,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$285</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="280"/>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1498,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP" sz="1100"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59958400"/>
@@ -1526,6 +1533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -1539,7 +1547,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59723136"/>
@@ -1577,7 +1585,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP" sz="1200"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1597,7 +1605,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1944,7 +1952,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2019,23 +2027,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2071,23 +2062,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2263,23 +2237,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.6328125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12" style="9" customWidth="1"/>
     <col min="7" max="18" width="9" style="9"/>
   </cols>
@@ -2559,13 +2533,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2574,15 +2548,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
